--- a/Onedrive All Files not in Folders/Test Payment Data and Registration Data.xlsx
+++ b/Onedrive All Files not in Folders/Test Payment Data and Registration Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onenrg-my.sharepoint.com/personal/raghavendra_kamath_nrg_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{1AA0F9CF-C573-44D4-9A2D-AF577E507EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9374AB55-21A7-4B96-B400-41921A7E9961}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="8_{1AA0F9CF-C573-44D4-9A2D-AF577E507EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBFD19F3-07A2-4088-88EF-B6E2A6510204}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AD030BF-38B5-46EF-B543-4AD4AE0B2027}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{5AD030BF-38B5-46EF-B543-4AD4AE0B2027}"/>
   </bookViews>
   <sheets>
     <sheet name="Payments" sheetId="1" r:id="rId1"/>
@@ -533,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3C9F4D-E37E-4A74-9A7A-181D44A918CD}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,12 +544,10 @@
     <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>122199983</v>
       </c>
@@ -568,7 +566,7 @@
         <v>89455</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>122199983</v>
       </c>
@@ -576,7 +574,7 @@
         <v>200001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>122105278</v>
       </c>
@@ -584,7 +582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>122105278</v>
       </c>
@@ -592,7 +590,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>122105278</v>
       </c>
@@ -600,7 +598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>122105278</v>
       </c>
@@ -608,7 +606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>122105278</v>
       </c>
@@ -616,104 +614,97 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>21</v>
@@ -742,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF80B36-CEA4-4DB4-ADBC-9ECD0BC83E84}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B28" sqref="B27:B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,6 +784,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="c010059d-9eab-4c68-87ed-433a58c74c13" xsi:nil="true"/>
@@ -800,7 +800,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF5662055FEC514EB2C0EBC62BED4B54" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cb5f8dddd00242d183bfca1db75b1cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c010059d-9eab-4c68-87ed-433a58c74c13" xmlns:ns4="ced5cf1b-9858-4fe4-9435-fb41333c5620" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30947fa80268da738dbdb2bbf2684c21" ns3:_="" ns4:_="">
     <xsd:import namespace="c010059d-9eab-4c68-87ed-433a58c74c13"/>
@@ -1027,26 +1027,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8BA18E8-97FA-4980-A03A-BDD35C786096}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E9FAD59-A221-4C11-9FC4-B991F2D4D362}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c010059d-9eab-4c68-87ed-433a58c74c13"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8BA18E8-97FA-4980-A03A-BDD35C786096}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ced5cf1b-9858-4fe4-9435-fb41333c5620"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c010059d-9eab-4c68-87ed-433a58c74c13"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6FAC785-8D3E-4572-935F-F55BA5075FBE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1063,12 +1069,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E9FAD59-A221-4C11-9FC4-B991F2D4D362}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Onedrive All Files not in Folders/Test Payment Data and Registration Data.xlsx
+++ b/Onedrive All Files not in Folders/Test Payment Data and Registration Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="167" documentId="8_{1AA0F9CF-C573-44D4-9A2D-AF577E507EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBFD19F3-07A2-4088-88EF-B6E2A6510204}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{5AD030BF-38B5-46EF-B543-4AD4AE0B2027}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5AD030BF-38B5-46EF-B543-4AD4AE0B2027}"/>
   </bookViews>
   <sheets>
     <sheet name="Payments" sheetId="1" r:id="rId1"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3C9F4D-E37E-4A74-9A7A-181D44A918CD}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,7 +734,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,15 +784,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="c010059d-9eab-4c68-87ed-433a58c74c13" xsi:nil="true"/>
@@ -800,7 +791,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF5662055FEC514EB2C0EBC62BED4B54" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cb5f8dddd00242d183bfca1db75b1cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c010059d-9eab-4c68-87ed-433a58c74c13" xmlns:ns4="ced5cf1b-9858-4fe4-9435-fb41333c5620" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30947fa80268da738dbdb2bbf2684c21" ns3:_="" ns4:_="">
     <xsd:import namespace="c010059d-9eab-4c68-87ed-433a58c74c13"/>
@@ -1027,15 +1018,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E9FAD59-A221-4C11-9FC4-B991F2D4D362}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8BA18E8-97FA-4980-A03A-BDD35C786096}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -1052,7 +1044,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6FAC785-8D3E-4572-935F-F55BA5075FBE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1069,4 +1061,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E9FAD59-A221-4C11-9FC4-B991F2D4D362}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>